--- a/outputs/HONULULU5.xlsx
+++ b/outputs/HONULULU5.xlsx
@@ -425,8 +425,8 @@
       <c r="A1" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations 2. Information Processing Style
-Why: Abi is motivated to complete tasks related to starting the course, and finding the syllabus is a logical step in understanding the course structure and requirements. Additionally, Abi's comprehensive information processing style involves gathering all necessary information before proceeding, which includes reviewing the syllabus. The homepage explicitly mentions reading the syllabus as part of the course introduction process, making it clear and straightforward for Abi to consider this a step toward achieving the overall use case.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The page explicitly instructs users to begin the course by clicking on the "Syllabus" link in the left pane and reading through it carefully. This aligns with Abi's motivation to accomplish tasks and her comprehensive information processing style, as she is likely to follow the provided instructions to understand the course requirements and structure.</t>
         </is>
       </c>
     </row>
@@ -434,8 +434,8 @@
       <c r="A2" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations 2. Information Processing Style
-Why: The homepage provides clear instructions for Abi to click on the "Syllabus" link in the left pane. The text specifically states, "To begin the course please click on Syllabus in the left pane," which aligns with Abi's motivation to start the course and her comprehensive information processing style. The instruction is explicit and direct, making it easy for Abi to know what to do at this step.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The page clearly instructs users to begin the course by clicking on the "Syllabus" link in the left pane. This aligns with Abi's motivation to accomplish tasks and her comprehensive information processing style, as she is likely to follow the provided instructions to understand the course requirements and structure. The explicit mention of the "Syllabus" link makes it clear what Abi needs to do at this step.</t>
         </is>
       </c>
     </row>
@@ -443,8 +443,8 @@
       <c r="A3" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations 2. Information Processing Style
-Why: After clicking on "Syllabus," Abi lands on a page clearly labeled "Course Syllabus" with detailed information, including a weekly schedule and links to other important documents such as the syllabus in PDF format. This page provides comprehensive information, which aligns with Abi's information processing style. It also directly supports Abi's motivation to get started with the course by offering all necessary syllabus details in an organized manner. Therefore, Abi will know that she did the right thing and is making progress toward her goal.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After clicking on the "Syllabus" link, Abi lands on a page titled "Course Syllabus," which includes detailed information about the course schedule and assignments. This confirms to Abi that she has done the right thing and is making progress toward her goal of getting started with the course. The comprehensive information provided aligns with her information processing style, ensuring she has all the necessary details to proceed.</t>
         </is>
       </c>
     </row>
@@ -452,8 +452,8 @@
       <c r="A4" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations 2. Information Processing Style
-Why: Reading the syllabus is a critical step in understanding the course structure, requirements, and schedule, which aligns with Abi's motivation to get started with the course. Abi's comprehensive information processing style involves gathering and understanding all relevant information before proceeding, and the syllabus is a fundamental resource that provides detailed information about the course. Therefore, Abi will consider reading the syllabus as an essential step toward achieving the overall use case.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: Reading the syllabus is a crucial step in understanding the course structure, requirements, and schedule. This aligns with Abi's motivation to accomplish tasks and her comprehensive information processing style, as she would want to gather all necessary information before proceeding with the course. The detailed syllabus page provides the information she needs to get started effectively.</t>
         </is>
       </c>
     </row>
@@ -461,8 +461,8 @@
       <c r="A5" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations 2. Information Processing Style
-Why: The "Syllabus (PDF)" link is clearly labeled and prominently displayed under the "Course Syllabus" heading. Abi, who is motivated to get started with the course and prefers to gather comprehensive information, will recognize that clicking this link will provide her with the full syllabus document. The clear labeling and context make it straightforward for Abi to know what to do at this step.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The "Syllabus (PDF)" link is clearly labeled and prominently displayed on the page. This aligns with Abi's motivation to accomplish tasks and her comprehensive information processing style, as she would recognize that clicking this link will provide her with the detailed syllabus in a downloadable format. The clear labeling and placement make it evident what Abi needs to do at this step.</t>
         </is>
       </c>
     </row>
@@ -470,17 +470,17 @@
       <c r="A6" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations 2. Information Processing Style
-Why: After clicking on "Syllabus (PDF)," Abi lands on a page displaying the full syllabus document. It contains detailed information about the course, including fundamental rules, response times, course description, content, learning outcomes, and course tools. This aligns with Abi's motivation to get started and her comprehensive information processing style. The detailed syllabus provides all the necessary information Abi needs to understand the course structure and expectations, making it clear that she did the right thing and is making progress toward her goal.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After clicking on the "Syllabus (PDF)" link, Abi lands on a page that provides a detailed syllabus, including course rules, response times, course description, content, learning outcomes, and tools. This comprehensive information aligns with Abi's motivation to accomplish tasks and her comprehensive information processing style. She will know she did the right thing and is making progress toward her goal of getting started with the course, as she has access to all the necessary details.</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Answer: YES
-Facets: 1. Motivations 2. Information Processing Style
-Why: Reading information under "Modules" is a crucial step for Abi to understand the course structure, content, and specific topics that will be covered. This aligns with her motivation to get started with the course and her comprehensive information processing style. The syllabus indicates the importance of knowing the content, including modules, to be prepared for the course. Therefore, Abi will consider reading information under "Modules" as a necessary step toward achieving the overall use case.</t>
+          <t>Answer: NO
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The current page provides detailed information about the course syllabus, including course rules, response times, course description, content, learning outcomes, and tools. However, it does not explicitly mention the need to read information under "Modules" as a step toward getting started with the course. Abi, who prefers comprehensive information and clear instructions, might not immediately think of checking the "Modules" section without explicit guidance. Therefore, she may not consider this a necessary step toward achieving her overall use case.</t>
         </is>
       </c>
     </row>
@@ -488,8 +488,8 @@
       <c r="A8" t="inlineStr">
         <is>
           <t>Answer: NO
-Facets: 4. Computer Self-Efficacy 5. Learning Style
-Why: The page Abi is on does not provide explicit instructions to click on "Modules" next. Abi, who has low confidence in doing unfamiliar computing tasks and prefers step-by-step processes, might not feel confident about what to do next without clear guidance. While the syllabus mentions modules as part of the course content, it does not provide a direct instruction to click on the "Modules" link, which may cause hesitation for Abi. Therefore, Abi may not know what to do at this step.</t>
+Facets: 4. Computer Self-Efficacy, 5. Learning Style
+Why: The current page does not provide explicit instructions or guidance on what to do next, particularly regarding clicking on "Modules." Given Abi's low confidence in performing unfamiliar computing tasks and her preference for process-oriented learning, she may not know that she needs to click on "Modules" to proceed. The lack of clear instructions or a step-by-step process on this page could make it difficult for Abi to know what to do at this step.</t>
         </is>
       </c>
     </row>
@@ -497,8 +497,8 @@
       <c r="A9" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations 2. Information Processing Style
-Why: After clicking on "Modules," Abi lands on a page with a clear breakdown of the course modules, including topics, assignments, quizzes, and other relevant information. This comprehensive overview aligns with Abi's motivation to get started with the course and her preference for gathering all necessary information. The detailed structure and clear labeling of each module make it evident that Abi did the right thing and is making progress toward her goal. Additionally, the page provides all the information she needs to understand the course content and requirements, supporting her comprehensive information processing style.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After clicking on "Modules," Abi lands on a page that provides a detailed breakdown of the course modules, including various lessons, assignments, quizzes, and other relevant information. This comprehensive layout aligns with Abi's motivation to accomplish tasks and her preference for a thorough understanding of the course structure. The detailed and organized presentation of the modules will help Abi know that she did the right thing and is making progress toward her goal of getting started with the course.</t>
         </is>
       </c>
     </row>

--- a/outputs/HONULULU5.xlsx
+++ b/outputs/HONULULU5.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,7 +426,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The syllabus is a crucial document that outlines the course structure, requirements, and schedule. Abi, who prefers to gather comprehensive information before starting a task, would consider finding the syllabus an essential step toward understanding the course and getting started. The page also explicitly mentions the importance of reading the syllabus, reinforcing its significance.</t>
+Why: The page explicitly mentions that to begin the course, Abi should click on "Syllabus" in the left pane and read through it carefully. This aligns with Abi's motivation to get started with the course and her comprehensive information processing style, as she would want to gather all necessary information before proceeding.</t>
         </is>
       </c>
     </row>
@@ -435,7 +435,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The page clearly instructs Abi to click on "Syllabus" in the left pane to begin the course. This aligns with Abi's motivation to gather comprehensive information and her preference for clear, step-by-step instructions. The explicit mention of the syllabus and its importance makes it clear what Abi needs to do at this step.</t>
+Why: The page clearly instructs Abi to click on "Syllabus" in the left pane to begin the course. This aligns with her motivation to get started and her comprehensive information processing style, as she would follow the step-by-step instructions provided to gather all necessary information.</t>
         </is>
       </c>
     </row>
@@ -444,7 +444,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking on "Syllabus," Abi lands on a page titled "Course Syllabus," which includes detailed information about the course schedule and requirements. This page provides comprehensive information, aligning with Abi's preference for gathering all necessary details before starting a task. The clear presentation of the syllabus confirms to Abi that she is making progress toward her goal of getting started with the course.</t>
+Why: After clicking on "Syllabus," Abi lands on a page titled "Course Syllabus," which includes detailed information about the course schedule and assignments. This confirms to Abi that she has done the right thing and is making progress toward her goal of getting started with the course. The comprehensive information provided aligns with her information processing style, ensuring she has all the necessary details to proceed.</t>
         </is>
       </c>
     </row>
@@ -453,7 +453,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: Reading the syllabus is a critical step for Abi to understand the course structure, requirements, and schedule. Given Abi's motivation to gather comprehensive information and her preference for detailed instructions, she would consider reading the syllabus an essential step toward getting started with the course. The page provides detailed information, which aligns with her information processing style.</t>
+Why: Reading the syllabus is a logical next step for Abi to get started with the course. The syllabus provides essential information about the course structure, schedule, and requirements, which aligns with Abi's motivation to understand what the course entails. Additionally, her comprehensive information processing style means she would want to read through the syllabus thoroughly to gather all necessary details before proceeding.</t>
         </is>
       </c>
     </row>
@@ -462,7 +462,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The page clearly labels the link as "Syllabus (PDF)," making it evident that clicking this link will open the syllabus document. Abi, who is motivated to gather comprehensive information and prefers clear instructions, will understand that clicking this link is the next step to read the syllabus. The explicit labeling and the context provided on the page align with her information processing style.</t>
+Why: The page clearly labels the link "Syllabus (PDF)" and places it prominently under the "Course Syllabus" section. This aligns with Abi's motivation to read the syllabus and her comprehensive information processing style, as she would recognize that clicking this link will provide her with the detailed syllabus document she needs.</t>
         </is>
       </c>
     </row>
@@ -471,16 +471,16 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking on "Syllabus (PDF)," Abi lands on a detailed document that includes comprehensive information about the course, such as fundamental rules, response times, course description, content, learning outcomes, and course tools. This aligns with Abi's motivation to gather all necessary information and her preference for detailed, structured content. The document provides a thorough overview, confirming to Abi that she is making progress toward her goal of getting started with the course and has all the information she needs.</t>
+Why: After clicking on "Syllabus (PDF)," Abi lands on a detailed document that includes comprehensive information about the course, such as instructor details, course content, learning outcomes, and tools required. This confirms to Abi that she has done the right thing and is making progress toward her goal of getting started with the course. The detailed information provided aligns with her comprehensive information processing style, ensuring she has all the necessary details to proceed.</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: The syllabus document includes a section on "Course content" that lists "modules" as one of the topics. Given Abi's motivation to gather comprehensive information and her preference for detailed, structured content, she would consider reading information under "Modules" as an essential step toward understanding the course structure and getting started. This aligns with her goal of being well-prepared for the course.</t>
+          <t>Answer: NO
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The current page is the syllabus PDF, which provides detailed information about the course structure, content, and requirements. While this is essential for understanding the course, it does not explicitly direct Abi to read information under "Modules" as a next step. Abi's motivation to get started with the course and her comprehensive information processing style would lead her to focus on the syllabus content first. She may not immediately think of reading information under "Modules" as a necessary step at this point.</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
         <is>
           <t>Answer: NO
 Facets: 4. Computer Self-Efficacy, 5. Learning Style
-Why: The current page does not provide explicit instructions or a clear indication that Abi should click on "Modules" next. Given Abi's low confidence in unfamiliar computing tasks and her preference for process-oriented learning with clear, step-by-step instructions, she might not know that clicking on "Modules" is the next step. The page does not guide her to this action, which could cause uncertainty.</t>
+Why: The current page is the syllabus PDF, which does not provide explicit instructions or context about what to do next, such as clicking on "Modules." Given Abi's low computer self-efficacy and preference for process-oriented learning, she may not feel confident or know that she should click on "Modules" without clear guidance. The lack of explicit direction on this page makes it unlikely that Abi will know what to do at this step.</t>
         </is>
       </c>
     </row>
@@ -498,7 +498,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking on "Modules," Abi lands on a page that provides a detailed breakdown of the course modules, including various sections and tasks. This aligns with Abi's motivation to gather comprehensive information and her preference for detailed, structured content. The clear organization and extensive information on this page will confirm to Abi that she is making progress toward her goal of understanding the course structure and getting started. The page provides all the necessary information she needs about the modules.</t>
+Why: After clicking on "Modules," Abi lands on a page that provides a detailed breakdown of the course modules, including various sections and tasks. This confirms to Abi that she has done the right thing and is making progress toward her goal of getting started with the course. The comprehensive layout and detailed information align with her information processing style, ensuring she has all the necessary details to proceed.</t>
         </is>
       </c>
     </row>
